--- a/outputSimulacoesCopadoMundo.xlsx
+++ b/outputSimulacoesCopadoMundo.xlsx
@@ -49,97 +49,97 @@
     <t>Brasil</t>
   </si>
   <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
     <t>Bélgica</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>França</t>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t>Espanha</t>
+  </si>
+  <si>
+    <t>Portugal</t>
   </si>
   <si>
     <t>Inglaterra</t>
   </si>
   <si>
-    <t>Espanha</t>
-  </si>
-  <si>
-    <t>Holanda</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
     <t>Dinamarca</t>
   </si>
   <si>
+    <t>Croácia</t>
+  </si>
+  <si>
+    <t>Alemanha</t>
+  </si>
+  <si>
     <t>Uruguai</t>
   </si>
   <si>
+    <t>Suíça</t>
+  </si>
+  <si>
     <t>México</t>
   </si>
   <si>
-    <t>Alemanha</t>
-  </si>
-  <si>
-    <t>Croácia</t>
-  </si>
-  <si>
     <t>Estados Unidos</t>
   </si>
   <si>
-    <t>Suíça</t>
+    <t>Sérvia</t>
+  </si>
+  <si>
+    <t>Polônia</t>
   </si>
   <si>
     <t>Senegal</t>
   </si>
   <si>
+    <t>Irã</t>
+  </si>
+  <si>
+    <t>Equador</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>Coreia do Sul</t>
+  </si>
+  <si>
     <t>País de Gales</t>
   </si>
   <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>Marrocos</t>
   </si>
   <si>
-    <t>Polônia</t>
-  </si>
-  <si>
-    <t>Irã</t>
-  </si>
-  <si>
-    <t>Sérvia</t>
-  </si>
-  <si>
-    <t>Japão</t>
-  </si>
-  <si>
-    <t>Coreia do Sul</t>
+    <t>Austrália</t>
   </si>
   <si>
     <t>Tunísia</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Arábia Saudita</t>
   </si>
   <si>
     <t>Camarões</t>
   </si>
   <si>
-    <t>Equador</t>
-  </si>
-  <si>
-    <t>Austrália</t>
-  </si>
-  <si>
-    <t>Canadá</t>
-  </si>
-  <si>
     <t>Catar</t>
   </si>
   <si>
     <t>Gana</t>
-  </si>
-  <si>
-    <t>Arábia Saudita</t>
   </si>
 </sst>
 </file>
@@ -540,31 +540,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.592</v>
+        <v>0.5736</v>
       </c>
       <c r="C2">
-        <v>0.2554</v>
+        <v>0.2624</v>
       </c>
       <c r="D2">
-        <v>0.1094</v>
+        <v>0.1207</v>
       </c>
       <c r="E2">
-        <v>0.0432</v>
+        <v>0.0433</v>
       </c>
       <c r="F2">
-        <v>0.8474</v>
+        <v>0.836</v>
       </c>
       <c r="G2">
-        <v>0.569</v>
+        <v>0.5473</v>
       </c>
       <c r="H2">
-        <v>0.3525</v>
+        <v>0.3426</v>
       </c>
       <c r="I2">
-        <v>0.2144</v>
+        <v>0.2103</v>
       </c>
       <c r="J2">
-        <v>0.1349</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -572,31 +572,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5780999999999999</v>
+        <v>0.5571</v>
       </c>
       <c r="C3">
-        <v>0.2606</v>
+        <v>0.2602</v>
       </c>
       <c r="D3">
-        <v>0.1167</v>
+        <v>0.1331</v>
       </c>
       <c r="E3">
-        <v>0.0446</v>
+        <v>0.0496</v>
       </c>
       <c r="F3">
-        <v>0.8387</v>
+        <v>0.8173</v>
       </c>
       <c r="G3">
-        <v>0.5425</v>
+        <v>0.4942</v>
       </c>
       <c r="H3">
-        <v>0.3232</v>
+        <v>0.3116</v>
       </c>
       <c r="I3">
-        <v>0.1945</v>
+        <v>0.1755</v>
       </c>
       <c r="J3">
-        <v>0.1126</v>
+        <v>0.1057</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -604,31 +604,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.5294</v>
+        <v>0.5103</v>
       </c>
       <c r="C4">
-        <v>0.2844</v>
+        <v>0.2917</v>
       </c>
       <c r="D4">
-        <v>0.1438</v>
+        <v>0.1351</v>
       </c>
       <c r="E4">
-        <v>0.0424</v>
+        <v>0.0629</v>
       </c>
       <c r="F4">
-        <v>0.8138</v>
+        <v>0.802</v>
       </c>
       <c r="G4">
-        <v>0.4902</v>
+        <v>0.483</v>
       </c>
       <c r="H4">
-        <v>0.3</v>
+        <v>0.2955</v>
       </c>
       <c r="I4">
-        <v>0.1711</v>
+        <v>0.1651</v>
       </c>
       <c r="J4">
-        <v>0.09859999999999999</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -636,31 +636,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.5217000000000001</v>
+        <v>0.4988</v>
       </c>
       <c r="C5">
-        <v>0.294</v>
+        <v>0.2848</v>
       </c>
       <c r="D5">
-        <v>0.1284</v>
+        <v>0.1452</v>
       </c>
       <c r="E5">
-        <v>0.0559</v>
+        <v>0.0712</v>
       </c>
       <c r="F5">
-        <v>0.8157</v>
+        <v>0.7836</v>
       </c>
       <c r="G5">
-        <v>0.4835</v>
+        <v>0.4625</v>
       </c>
       <c r="H5">
-        <v>0.2947</v>
+        <v>0.2516</v>
       </c>
       <c r="I5">
-        <v>0.1693</v>
+        <v>0.1425</v>
       </c>
       <c r="J5">
-        <v>0.09470000000000001</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -668,31 +668,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.4456</v>
+        <v>0.553</v>
       </c>
       <c r="C6">
-        <v>0.2743</v>
+        <v>0.264</v>
       </c>
       <c r="D6">
-        <v>0.1741</v>
+        <v>0.1373</v>
       </c>
       <c r="E6">
-        <v>0.106</v>
+        <v>0.0457</v>
       </c>
       <c r="F6">
-        <v>0.7199</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="G6">
-        <v>0.4667</v>
+        <v>0.4926</v>
       </c>
       <c r="H6">
-        <v>0.2584</v>
+        <v>0.2686</v>
       </c>
       <c r="I6">
-        <v>0.1397</v>
+        <v>0.1367</v>
       </c>
       <c r="J6">
-        <v>0.0736</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -700,31 +700,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.451</v>
+        <v>0.4466</v>
       </c>
       <c r="C7">
-        <v>0.2891</v>
+        <v>0.2857</v>
       </c>
       <c r="D7">
-        <v>0.1685</v>
+        <v>0.1718</v>
       </c>
       <c r="E7">
-        <v>0.0914</v>
+        <v>0.0959</v>
       </c>
       <c r="F7">
-        <v>0.7401</v>
+        <v>0.7323</v>
       </c>
       <c r="G7">
-        <v>0.4033</v>
+        <v>0.4333</v>
       </c>
       <c r="H7">
-        <v>0.2232</v>
+        <v>0.2363</v>
       </c>
       <c r="I7">
-        <v>0.1194</v>
+        <v>0.1327</v>
       </c>
       <c r="J7">
-        <v>0.0618</v>
+        <v>0.0725</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -732,31 +732,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.527</v>
+        <v>0.4605</v>
       </c>
       <c r="C8">
-        <v>0.2953</v>
+        <v>0.3202</v>
       </c>
       <c r="D8">
-        <v>0.1317</v>
+        <v>0.1819</v>
       </c>
       <c r="E8">
-        <v>0.046</v>
+        <v>0.0374</v>
       </c>
       <c r="F8">
-        <v>0.8223</v>
+        <v>0.7806999999999999</v>
       </c>
       <c r="G8">
-        <v>0.4409</v>
+        <v>0.4136</v>
       </c>
       <c r="H8">
-        <v>0.2203</v>
+        <v>0.2223</v>
       </c>
       <c r="I8">
-        <v>0.1097</v>
+        <v>0.1198</v>
       </c>
       <c r="J8">
-        <v>0.0506</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -764,31 +764,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.4595</v>
+        <v>0.4331</v>
       </c>
       <c r="C9">
-        <v>0.3175</v>
+        <v>0.2763</v>
       </c>
       <c r="D9">
-        <v>0.185</v>
+        <v>0.1787</v>
       </c>
       <c r="E9">
-        <v>0.038</v>
+        <v>0.1119</v>
       </c>
       <c r="F9">
-        <v>0.777</v>
+        <v>0.7094</v>
       </c>
       <c r="G9">
-        <v>0.406</v>
+        <v>0.425</v>
       </c>
       <c r="H9">
-        <v>0.2094</v>
+        <v>0.2242</v>
       </c>
       <c r="I9">
-        <v>0.1065</v>
+        <v>0.1166</v>
       </c>
       <c r="J9">
-        <v>0.0505</v>
+        <v>0.0585</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -796,31 +796,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.3343</v>
+        <v>0.3328</v>
       </c>
       <c r="C10">
-        <v>0.3588</v>
+        <v>0.3623</v>
       </c>
       <c r="D10">
-        <v>0.2068</v>
+        <v>0.2034</v>
       </c>
       <c r="E10">
-        <v>0.1001</v>
+        <v>0.1015</v>
       </c>
       <c r="F10">
-        <v>0.6931</v>
+        <v>0.6951000000000001</v>
       </c>
       <c r="G10">
-        <v>0.3532</v>
+        <v>0.3621</v>
       </c>
       <c r="H10">
-        <v>0.1863</v>
+        <v>0.1908</v>
       </c>
       <c r="I10">
-        <v>0.0905</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J10">
-        <v>0.0433</v>
+        <v>0.0426</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -828,31 +828,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3729</v>
+        <v>0.3289</v>
       </c>
       <c r="C11">
-        <v>0.364</v>
+        <v>0.349</v>
       </c>
       <c r="D11">
-        <v>0.2119</v>
+        <v>0.1996</v>
       </c>
       <c r="E11">
-        <v>0.0512</v>
+        <v>0.1225</v>
       </c>
       <c r="F11">
-        <v>0.7369</v>
+        <v>0.6778999999999999</v>
       </c>
       <c r="G11">
-        <v>0.3547</v>
+        <v>0.3513</v>
       </c>
       <c r="H11">
-        <v>0.1716</v>
+        <v>0.1689</v>
       </c>
       <c r="I11">
-        <v>0.08119999999999999</v>
+        <v>0.0851</v>
       </c>
       <c r="J11">
-        <v>0.0383</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -860,31 +860,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3067</v>
+        <v>0.3151</v>
       </c>
       <c r="C12">
-        <v>0.3698</v>
+        <v>0.2999</v>
       </c>
       <c r="D12">
-        <v>0.2351</v>
+        <v>0.2324</v>
       </c>
       <c r="E12">
-        <v>0.08840000000000001</v>
+        <v>0.1526</v>
       </c>
       <c r="F12">
-        <v>0.6765</v>
+        <v>0.615</v>
       </c>
       <c r="G12">
-        <v>0.3417</v>
+        <v>0.3214</v>
       </c>
       <c r="H12">
-        <v>0.1756</v>
+        <v>0.1592</v>
       </c>
       <c r="I12">
-        <v>0.0795</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="J12">
-        <v>0.0368</v>
+        <v>0.0371</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -892,31 +892,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.3264</v>
+        <v>0.3542</v>
       </c>
       <c r="C13">
-        <v>0.3188</v>
+        <v>0.3547</v>
       </c>
       <c r="D13">
-        <v>0.222</v>
+        <v>0.237</v>
       </c>
       <c r="E13">
-        <v>0.1328</v>
+        <v>0.0541</v>
       </c>
       <c r="F13">
-        <v>0.6452</v>
+        <v>0.7089</v>
       </c>
       <c r="G13">
-        <v>0.3229</v>
+        <v>0.3331</v>
       </c>
       <c r="H13">
-        <v>0.1582</v>
+        <v>0.1634</v>
       </c>
       <c r="I13">
-        <v>0.07580000000000001</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="J13">
-        <v>0.0357</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -924,31 +924,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.2295</v>
+        <v>0.234</v>
       </c>
       <c r="C14">
-        <v>0.3481</v>
+        <v>0.3538</v>
       </c>
       <c r="D14">
-        <v>0.2761</v>
+        <v>0.2807</v>
       </c>
       <c r="E14">
-        <v>0.1463</v>
+        <v>0.1315</v>
       </c>
       <c r="F14">
-        <v>0.5776</v>
+        <v>0.5878</v>
       </c>
       <c r="G14">
-        <v>0.2897</v>
+        <v>0.2988</v>
       </c>
       <c r="H14">
-        <v>0.1392</v>
+        <v>0.143</v>
       </c>
       <c r="I14">
-        <v>0.0631</v>
+        <v>0.0678</v>
       </c>
       <c r="J14">
-        <v>0.0269</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -956,31 +956,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.2568</v>
+        <v>0.2309</v>
       </c>
       <c r="C15">
-        <v>0.2864</v>
+        <v>0.3357</v>
       </c>
       <c r="D15">
-        <v>0.2525</v>
+        <v>0.2849</v>
       </c>
       <c r="E15">
-        <v>0.2043</v>
+        <v>0.1485</v>
       </c>
       <c r="F15">
-        <v>0.5432</v>
+        <v>0.5666</v>
       </c>
       <c r="G15">
-        <v>0.3017</v>
+        <v>0.2629</v>
       </c>
       <c r="H15">
-        <v>0.1433</v>
+        <v>0.1257</v>
       </c>
       <c r="I15">
-        <v>0.0658</v>
+        <v>0.0542</v>
       </c>
       <c r="J15">
-        <v>0.0267</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -988,31 +988,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.2342</v>
+        <v>0.2457</v>
       </c>
       <c r="C16">
-        <v>0.3333</v>
+        <v>0.2703</v>
       </c>
       <c r="D16">
-        <v>0.2738</v>
+        <v>0.2527</v>
       </c>
       <c r="E16">
-        <v>0.1587</v>
+        <v>0.2313</v>
       </c>
       <c r="F16">
-        <v>0.5675</v>
+        <v>0.516</v>
       </c>
       <c r="G16">
-        <v>0.2893</v>
+        <v>0.2569</v>
       </c>
       <c r="H16">
-        <v>0.1297</v>
+        <v>0.1141</v>
       </c>
       <c r="I16">
-        <v>0.0613</v>
+        <v>0.049</v>
       </c>
       <c r="J16">
-        <v>0.0241</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1020,31 +1020,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.3213</v>
+        <v>0.164</v>
       </c>
       <c r="C17">
-        <v>0.3614</v>
+        <v>0.2951</v>
       </c>
       <c r="D17">
-        <v>0.2158</v>
+        <v>0.353</v>
       </c>
       <c r="E17">
-        <v>0.1015</v>
+        <v>0.1879</v>
       </c>
       <c r="F17">
-        <v>0.6827</v>
+        <v>0.4591</v>
       </c>
       <c r="G17">
-        <v>0.3067</v>
+        <v>0.205</v>
       </c>
       <c r="H17">
-        <v>0.1286</v>
+        <v>0.0886</v>
       </c>
       <c r="I17">
-        <v>0.0528</v>
+        <v>0.0386</v>
       </c>
       <c r="J17">
-        <v>0.0207</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1052,31 +1052,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.16</v>
+        <v>0.1796</v>
       </c>
       <c r="C18">
-        <v>0.2344</v>
+        <v>0.3007</v>
       </c>
       <c r="D18">
-        <v>0.2921</v>
+        <v>0.3263</v>
       </c>
       <c r="E18">
-        <v>0.3135</v>
+        <v>0.1934</v>
       </c>
       <c r="F18">
-        <v>0.3944</v>
+        <v>0.4803</v>
       </c>
       <c r="G18">
-        <v>0.1974</v>
+        <v>0.205</v>
       </c>
       <c r="H18">
-        <v>0.08210000000000001</v>
+        <v>0.0925</v>
       </c>
       <c r="I18">
-        <v>0.0307</v>
+        <v>0.0357</v>
       </c>
       <c r="J18">
-        <v>0.0118</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1084,31 +1084,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.1432</v>
+        <v>0.2094</v>
       </c>
       <c r="C19">
-        <v>0.262</v>
+        <v>0.326</v>
       </c>
       <c r="D19">
-        <v>0.3333</v>
+        <v>0.3023</v>
       </c>
       <c r="E19">
-        <v>0.2615</v>
+        <v>0.1623</v>
       </c>
       <c r="F19">
-        <v>0.4052</v>
+        <v>0.5354</v>
       </c>
       <c r="G19">
-        <v>0.1707</v>
+        <v>0.2274</v>
       </c>
       <c r="H19">
-        <v>0.06619999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="I19">
-        <v>0.0255</v>
+        <v>0.0343</v>
       </c>
       <c r="J19">
-        <v>0.0095</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1116,31 +1116,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.1351</v>
+        <v>0.1753</v>
       </c>
       <c r="C20">
-        <v>0.2598</v>
+        <v>0.2353</v>
       </c>
       <c r="D20">
-        <v>0.3932</v>
+        <v>0.2849</v>
       </c>
       <c r="E20">
-        <v>0.2119</v>
+        <v>0.3045</v>
       </c>
       <c r="F20">
-        <v>0.3949</v>
+        <v>0.4106</v>
       </c>
       <c r="G20">
-        <v>0.1507</v>
+        <v>0.1922</v>
       </c>
       <c r="H20">
-        <v>0.06270000000000001</v>
+        <v>0.0761</v>
       </c>
       <c r="I20">
-        <v>0.0238</v>
+        <v>0.0306</v>
       </c>
       <c r="J20">
-        <v>0.0089</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1148,31 +1148,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.1376</v>
+        <v>0.2067</v>
       </c>
       <c r="C21">
-        <v>0.2049</v>
+        <v>0.3119</v>
       </c>
       <c r="D21">
-        <v>0.2813</v>
+        <v>0.3278</v>
       </c>
       <c r="E21">
-        <v>0.3762</v>
+        <v>0.1536</v>
       </c>
       <c r="F21">
-        <v>0.3425</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="G21">
-        <v>0.1582</v>
+        <v>0.2205</v>
       </c>
       <c r="H21">
-        <v>0.0603</v>
+        <v>0.0824</v>
       </c>
       <c r="I21">
-        <v>0.0226</v>
+        <v>0.0314</v>
       </c>
       <c r="J21">
-        <v>0.0081</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1180,31 +1180,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1216</v>
+        <v>0.1461</v>
       </c>
       <c r="C22">
-        <v>0.2623</v>
+        <v>0.2394</v>
       </c>
       <c r="D22">
-        <v>0.3334</v>
+        <v>0.3033</v>
       </c>
       <c r="E22">
-        <v>0.2827</v>
+        <v>0.3112</v>
       </c>
       <c r="F22">
-        <v>0.3839</v>
+        <v>0.3855</v>
       </c>
       <c r="G22">
-        <v>0.162</v>
+        <v>0.154</v>
       </c>
       <c r="H22">
-        <v>0.0596</v>
+        <v>0.0575</v>
       </c>
       <c r="I22">
-        <v>0.0212</v>
+        <v>0.0222</v>
       </c>
       <c r="J22">
-        <v>0.0077</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1212,31 +1212,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1492</v>
+        <v>0.1756</v>
       </c>
       <c r="C23">
-        <v>0.2379</v>
+        <v>0.2886</v>
       </c>
       <c r="D23">
-        <v>0.3182</v>
+        <v>0.4148</v>
       </c>
       <c r="E23">
-        <v>0.2947</v>
+        <v>0.121</v>
       </c>
       <c r="F23">
-        <v>0.3871</v>
+        <v>0.4642</v>
       </c>
       <c r="G23">
-        <v>0.1443</v>
+        <v>0.1677</v>
       </c>
       <c r="H23">
-        <v>0.0563</v>
+        <v>0.0645</v>
       </c>
       <c r="I23">
-        <v>0.0227</v>
+        <v>0.0254</v>
       </c>
       <c r="J23">
-        <v>0.0073</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1244,31 +1244,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1567</v>
+        <v>0.1459</v>
       </c>
       <c r="C24">
-        <v>0.2721</v>
+        <v>0.2181</v>
       </c>
       <c r="D24">
-        <v>0.4338</v>
+        <v>0.2837</v>
       </c>
       <c r="E24">
-        <v>0.1374</v>
+        <v>0.3523</v>
       </c>
       <c r="F24">
-        <v>0.4288</v>
+        <v>0.364</v>
       </c>
       <c r="G24">
-        <v>0.1482</v>
+        <v>0.156</v>
       </c>
       <c r="H24">
-        <v>0.0521</v>
+        <v>0.059</v>
       </c>
       <c r="I24">
-        <v>0.0185</v>
+        <v>0.0214</v>
       </c>
       <c r="J24">
-        <v>0.0071</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1276,31 +1276,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08459999999999999</v>
+        <v>0.0922</v>
       </c>
       <c r="C25">
-        <v>0.1987</v>
+        <v>0.175</v>
       </c>
       <c r="D25">
-        <v>0.3512</v>
+        <v>0.2925</v>
       </c>
       <c r="E25">
-        <v>0.3655</v>
+        <v>0.4403</v>
       </c>
       <c r="F25">
-        <v>0.2833</v>
+        <v>0.2672</v>
       </c>
       <c r="G25">
-        <v>0.0946</v>
+        <v>0.0968</v>
       </c>
       <c r="H25">
-        <v>0.0329</v>
+        <v>0.0355</v>
       </c>
       <c r="I25">
-        <v>0.0102</v>
+        <v>0.0121</v>
       </c>
       <c r="J25">
-        <v>0.0025</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1308,31 +1308,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.07340000000000001</v>
+        <v>0.0951</v>
       </c>
       <c r="C26">
-        <v>0.1542</v>
+        <v>0.1988</v>
       </c>
       <c r="D26">
-        <v>0.2913</v>
+        <v>0.3416</v>
       </c>
       <c r="E26">
-        <v>0.4811</v>
+        <v>0.3645</v>
       </c>
       <c r="F26">
-        <v>0.2276</v>
+        <v>0.2939</v>
       </c>
       <c r="G26">
-        <v>0.0733</v>
+        <v>0.1015</v>
       </c>
       <c r="H26">
-        <v>0.0242</v>
+        <v>0.0338</v>
       </c>
       <c r="I26">
-        <v>0.0075</v>
+        <v>0.0111</v>
       </c>
       <c r="J26">
-        <v>0.002</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1340,31 +1340,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.0522</v>
+        <v>0.0762</v>
       </c>
       <c r="C27">
-        <v>0.149</v>
+        <v>0.1726</v>
       </c>
       <c r="D27">
-        <v>0.2834</v>
+        <v>0.3332</v>
       </c>
       <c r="E27">
-        <v>0.5154</v>
+        <v>0.418</v>
       </c>
       <c r="F27">
-        <v>0.2012</v>
+        <v>0.2488</v>
       </c>
       <c r="G27">
-        <v>0.0626</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="H27">
-        <v>0.0194</v>
+        <v>0.0312</v>
       </c>
       <c r="I27">
-        <v>0.0061</v>
+        <v>0.0104</v>
       </c>
       <c r="J27">
-        <v>0.0017</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1372,31 +1372,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.08599999999999999</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="C28">
-        <v>0.1946</v>
+        <v>0.1734</v>
       </c>
       <c r="D28">
-        <v>0.3444</v>
+        <v>0.3283</v>
       </c>
       <c r="E28">
-        <v>0.375</v>
+        <v>0.4176</v>
       </c>
       <c r="F28">
-        <v>0.2806</v>
+        <v>0.2541</v>
       </c>
       <c r="G28">
-        <v>0.07530000000000001</v>
+        <v>0.0824</v>
       </c>
       <c r="H28">
-        <v>0.0184</v>
+        <v>0.0283</v>
       </c>
       <c r="I28">
-        <v>0.0045</v>
+        <v>0.008</v>
       </c>
       <c r="J28">
-        <v>0.0012</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1404,31 +1404,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.0594</v>
+        <v>0.0772</v>
       </c>
       <c r="C29">
-        <v>0.1485</v>
+        <v>0.1674</v>
       </c>
       <c r="D29">
         <v>0.3136</v>
       </c>
       <c r="E29">
-        <v>0.4785</v>
+        <v>0.4418</v>
       </c>
       <c r="F29">
-        <v>0.2079</v>
+        <v>0.2446</v>
       </c>
       <c r="G29">
-        <v>0.0615</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="H29">
-        <v>0.0185</v>
+        <v>0.0245</v>
       </c>
       <c r="I29">
-        <v>0.0052</v>
+        <v>0.0071</v>
       </c>
       <c r="J29">
-        <v>0.0012</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1436,31 +1436,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.0492</v>
+        <v>0.0324</v>
       </c>
       <c r="C30">
-        <v>0.1293</v>
+        <v>0.1034</v>
       </c>
       <c r="D30">
-        <v>0.2739</v>
+        <v>0.2557</v>
       </c>
       <c r="E30">
-        <v>0.5476</v>
+        <v>0.6085</v>
       </c>
       <c r="F30">
-        <v>0.1785</v>
+        <v>0.1358</v>
       </c>
       <c r="G30">
-        <v>0.0533</v>
+        <v>0.0302</v>
       </c>
       <c r="H30">
-        <v>0.0143</v>
+        <v>0.0067</v>
       </c>
       <c r="I30">
-        <v>0.0034</v>
+        <v>0.0024</v>
       </c>
       <c r="J30">
-        <v>0.0005999999999999999</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1468,31 +1468,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.06569999999999999</v>
+        <v>0.0284</v>
       </c>
       <c r="C31">
-        <v>0.1487</v>
+        <v>0.0887</v>
       </c>
       <c r="D31">
-        <v>0.3081</v>
+        <v>0.2456</v>
       </c>
       <c r="E31">
-        <v>0.4775</v>
+        <v>0.6373</v>
       </c>
       <c r="F31">
-        <v>0.2144</v>
+        <v>0.1171</v>
       </c>
       <c r="G31">
-        <v>0.0531</v>
+        <v>0.0278</v>
       </c>
       <c r="H31">
-        <v>0.0123</v>
+        <v>0.0072</v>
       </c>
       <c r="I31">
-        <v>0.0021</v>
+        <v>0.0022</v>
       </c>
       <c r="J31">
-        <v>0.0005999999999999999</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1500,31 +1500,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.0109</v>
+        <v>0.0309</v>
       </c>
       <c r="C32">
-        <v>0.0464</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="D32">
-        <v>0.1693</v>
+        <v>0.2326</v>
       </c>
       <c r="E32">
-        <v>0.7734</v>
+        <v>0.6384</v>
       </c>
       <c r="F32">
-        <v>0.0573</v>
+        <v>0.129</v>
       </c>
       <c r="G32">
-        <v>0.008200000000000001</v>
+        <v>0.0294</v>
       </c>
       <c r="H32">
-        <v>0.0009</v>
+        <v>0.0053</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1532,28 +1532,28 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.0288</v>
+        <v>0.0097</v>
       </c>
       <c r="C33">
-        <v>0.08599999999999999</v>
+        <v>0.0365</v>
       </c>
       <c r="D33">
-        <v>0.2279</v>
+        <v>0.1663</v>
       </c>
       <c r="E33">
-        <v>0.6573</v>
+        <v>0.7875</v>
       </c>
       <c r="F33">
-        <v>0.1148</v>
+        <v>0.0462</v>
       </c>
       <c r="G33">
-        <v>0.0246</v>
+        <v>0.0067</v>
       </c>
       <c r="H33">
-        <v>0.0056</v>
+        <v>0.0011</v>
       </c>
       <c r="I33">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>

--- a/outputSimulacoesCopadoMundo.xlsx
+++ b/outputSimulacoesCopadoMundo.xlsx
@@ -76,45 +76,45 @@
     <t>Croácia</t>
   </si>
   <si>
+    <t>Uruguai</t>
+  </si>
+  <si>
     <t>Alemanha</t>
   </si>
   <si>
-    <t>Uruguai</t>
-  </si>
-  <si>
     <t>Suíça</t>
   </si>
   <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
     <t>México</t>
   </si>
   <si>
-    <t>Estados Unidos</t>
-  </si>
-  <si>
     <t>Sérvia</t>
   </si>
   <si>
     <t>Polônia</t>
   </si>
   <si>
+    <t>Irã</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Irã</t>
-  </si>
-  <si>
     <t>Equador</t>
   </si>
   <si>
+    <t>País de Gales</t>
+  </si>
+  <si>
+    <t>Coreia do Sul</t>
+  </si>
+  <si>
     <t>Japão</t>
   </si>
   <si>
-    <t>Coreia do Sul</t>
-  </si>
-  <si>
-    <t>País de Gales</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -124,10 +124,10 @@
     <t>Austrália</t>
   </si>
   <si>
+    <t>Canadá</t>
+  </si>
+  <si>
     <t>Tunísia</t>
-  </si>
-  <si>
-    <t>Canadá</t>
   </si>
   <si>
     <t>Arábia Saudita</t>
@@ -540,31 +540,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.5736</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C2">
-        <v>0.2624</v>
+        <v>0.2637</v>
       </c>
       <c r="D2">
-        <v>0.1207</v>
+        <v>0.1283</v>
       </c>
       <c r="E2">
-        <v>0.0433</v>
+        <v>0.042</v>
       </c>
       <c r="F2">
-        <v>0.836</v>
+        <v>0.8297</v>
       </c>
       <c r="G2">
-        <v>0.5473</v>
+        <v>0.5382</v>
       </c>
       <c r="H2">
-        <v>0.3426</v>
+        <v>0.3353</v>
       </c>
       <c r="I2">
-        <v>0.2103</v>
+        <v>0.2084</v>
       </c>
       <c r="J2">
-        <v>0.1229</v>
+        <v>0.1291</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -572,31 +572,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5571</v>
+        <v>0.539</v>
       </c>
       <c r="C3">
-        <v>0.2602</v>
+        <v>0.2668</v>
       </c>
       <c r="D3">
-        <v>0.1331</v>
+        <v>0.1416</v>
       </c>
       <c r="E3">
-        <v>0.0496</v>
+        <v>0.0526</v>
       </c>
       <c r="F3">
-        <v>0.8173</v>
+        <v>0.8058</v>
       </c>
       <c r="G3">
-        <v>0.4942</v>
+        <v>0.4941</v>
       </c>
       <c r="H3">
-        <v>0.3116</v>
+        <v>0.3032</v>
       </c>
       <c r="I3">
-        <v>0.1755</v>
+        <v>0.1696</v>
       </c>
       <c r="J3">
-        <v>0.1057</v>
+        <v>0.09950000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -604,31 +604,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.5103</v>
+        <v>0.4938</v>
       </c>
       <c r="C4">
         <v>0.2917</v>
       </c>
       <c r="D4">
-        <v>0.1351</v>
+        <v>0.1425</v>
       </c>
       <c r="E4">
-        <v>0.0629</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F4">
-        <v>0.802</v>
+        <v>0.7855</v>
       </c>
       <c r="G4">
-        <v>0.483</v>
+        <v>0.4639</v>
       </c>
       <c r="H4">
-        <v>0.2955</v>
+        <v>0.2772</v>
       </c>
       <c r="I4">
-        <v>0.1651</v>
+        <v>0.1512</v>
       </c>
       <c r="J4">
-        <v>0.0921</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -636,28 +636,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.4988</v>
+        <v>0.4825</v>
       </c>
       <c r="C5">
-        <v>0.2848</v>
+        <v>0.2957</v>
       </c>
       <c r="D5">
-        <v>0.1452</v>
+        <v>0.148</v>
       </c>
       <c r="E5">
-        <v>0.0712</v>
+        <v>0.0738</v>
       </c>
       <c r="F5">
-        <v>0.7836</v>
+        <v>0.7782</v>
       </c>
       <c r="G5">
-        <v>0.4625</v>
+        <v>0.4619</v>
       </c>
       <c r="H5">
-        <v>0.2516</v>
+        <v>0.2521</v>
       </c>
       <c r="I5">
-        <v>0.1425</v>
+        <v>0.1412</v>
       </c>
       <c r="J5">
         <v>0.0771</v>
@@ -668,31 +668,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.553</v>
+        <v>0.5574</v>
       </c>
       <c r="C6">
-        <v>0.264</v>
+        <v>0.2617</v>
       </c>
       <c r="D6">
-        <v>0.1373</v>
+        <v>0.1351</v>
       </c>
       <c r="E6">
-        <v>0.0457</v>
+        <v>0.0458</v>
       </c>
       <c r="F6">
-        <v>0.8169999999999999</v>
+        <v>0.8191000000000001</v>
       </c>
       <c r="G6">
-        <v>0.4926</v>
+        <v>0.485</v>
       </c>
       <c r="H6">
-        <v>0.2686</v>
+        <v>0.2683</v>
       </c>
       <c r="I6">
-        <v>0.1367</v>
+        <v>0.1412</v>
       </c>
       <c r="J6">
-        <v>0.0741</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -700,31 +700,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.4466</v>
+        <v>0.459</v>
       </c>
       <c r="C7">
-        <v>0.2857</v>
+        <v>0.2767</v>
       </c>
       <c r="D7">
-        <v>0.1718</v>
+        <v>0.1679</v>
       </c>
       <c r="E7">
-        <v>0.0959</v>
+        <v>0.0964</v>
       </c>
       <c r="F7">
-        <v>0.7323</v>
+        <v>0.7357</v>
       </c>
       <c r="G7">
-        <v>0.4333</v>
+        <v>0.4271</v>
       </c>
       <c r="H7">
-        <v>0.2363</v>
+        <v>0.2337</v>
       </c>
       <c r="I7">
-        <v>0.1327</v>
+        <v>0.1294</v>
       </c>
       <c r="J7">
-        <v>0.0725</v>
+        <v>0.0668</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -732,31 +732,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.4605</v>
+        <v>0.4575</v>
       </c>
       <c r="C8">
-        <v>0.3202</v>
+        <v>0.3198</v>
       </c>
       <c r="D8">
-        <v>0.1819</v>
+        <v>0.1804</v>
       </c>
       <c r="E8">
-        <v>0.0374</v>
+        <v>0.0423</v>
       </c>
       <c r="F8">
-        <v>0.7806999999999999</v>
+        <v>0.7773</v>
       </c>
       <c r="G8">
-        <v>0.4136</v>
+        <v>0.4109</v>
       </c>
       <c r="H8">
-        <v>0.2223</v>
+        <v>0.2243</v>
       </c>
       <c r="I8">
-        <v>0.1198</v>
+        <v>0.1203</v>
       </c>
       <c r="J8">
-        <v>0.0618</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -764,31 +764,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.4331</v>
+        <v>0.4188</v>
       </c>
       <c r="C9">
-        <v>0.2763</v>
+        <v>0.2722</v>
       </c>
       <c r="D9">
-        <v>0.1787</v>
+        <v>0.1839</v>
       </c>
       <c r="E9">
-        <v>0.1119</v>
+        <v>0.1251</v>
       </c>
       <c r="F9">
-        <v>0.7094</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G9">
-        <v>0.425</v>
+        <v>0.4112</v>
       </c>
       <c r="H9">
-        <v>0.2242</v>
+        <v>0.2213</v>
       </c>
       <c r="I9">
-        <v>0.1166</v>
+        <v>0.1178</v>
       </c>
       <c r="J9">
-        <v>0.0585</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -796,31 +796,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.3328</v>
+        <v>0.3341</v>
       </c>
       <c r="C10">
-        <v>0.3623</v>
+        <v>0.3415</v>
       </c>
       <c r="D10">
-        <v>0.2034</v>
+        <v>0.2013</v>
       </c>
       <c r="E10">
-        <v>0.1015</v>
+        <v>0.1231</v>
       </c>
       <c r="F10">
-        <v>0.6951000000000001</v>
+        <v>0.6756</v>
       </c>
       <c r="G10">
-        <v>0.3621</v>
+        <v>0.3485</v>
       </c>
       <c r="H10">
-        <v>0.1908</v>
+        <v>0.1866</v>
       </c>
       <c r="I10">
-        <v>0.09379999999999999</v>
+        <v>0.0916</v>
       </c>
       <c r="J10">
-        <v>0.0426</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -828,31 +828,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3289</v>
+        <v>0.336</v>
       </c>
       <c r="C11">
-        <v>0.349</v>
+        <v>0.3353</v>
       </c>
       <c r="D11">
-        <v>0.1996</v>
+        <v>0.2087</v>
       </c>
       <c r="E11">
-        <v>0.1225</v>
+        <v>0.12</v>
       </c>
       <c r="F11">
-        <v>0.6778999999999999</v>
+        <v>0.6713</v>
       </c>
       <c r="G11">
-        <v>0.3513</v>
+        <v>0.3509</v>
       </c>
       <c r="H11">
-        <v>0.1689</v>
+        <v>0.1702</v>
       </c>
       <c r="I11">
-        <v>0.0851</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J11">
-        <v>0.0416</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -860,31 +860,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3151</v>
+        <v>0.3471</v>
       </c>
       <c r="C12">
-        <v>0.2999</v>
+        <v>0.3495</v>
       </c>
       <c r="D12">
-        <v>0.2324</v>
+        <v>0.2449</v>
       </c>
       <c r="E12">
-        <v>0.1526</v>
+        <v>0.0585</v>
       </c>
       <c r="F12">
-        <v>0.615</v>
+        <v>0.6966</v>
       </c>
       <c r="G12">
-        <v>0.3214</v>
+        <v>0.3314</v>
       </c>
       <c r="H12">
-        <v>0.1592</v>
+        <v>0.1627</v>
       </c>
       <c r="I12">
-        <v>0.07770000000000001</v>
+        <v>0.0823</v>
       </c>
       <c r="J12">
-        <v>0.0371</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -892,31 +892,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.3542</v>
+        <v>0.3</v>
       </c>
       <c r="C13">
-        <v>0.3547</v>
+        <v>0.3072</v>
       </c>
       <c r="D13">
-        <v>0.237</v>
+        <v>0.2323</v>
       </c>
       <c r="E13">
-        <v>0.0541</v>
+        <v>0.1605</v>
       </c>
       <c r="F13">
-        <v>0.7089</v>
+        <v>0.6072</v>
       </c>
       <c r="G13">
-        <v>0.3331</v>
+        <v>0.3145</v>
       </c>
       <c r="H13">
-        <v>0.1634</v>
+        <v>0.1543</v>
       </c>
       <c r="I13">
-        <v>0.07920000000000001</v>
+        <v>0.0735</v>
       </c>
       <c r="J13">
-        <v>0.0355</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -924,31 +924,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.234</v>
+        <v>0.2379</v>
       </c>
       <c r="C14">
-        <v>0.3538</v>
+        <v>0.3491</v>
       </c>
       <c r="D14">
-        <v>0.2807</v>
+        <v>0.2766</v>
       </c>
       <c r="E14">
-        <v>0.1315</v>
+        <v>0.1364</v>
       </c>
       <c r="F14">
-        <v>0.5878</v>
+        <v>0.587</v>
       </c>
       <c r="G14">
-        <v>0.2988</v>
+        <v>0.2936</v>
       </c>
       <c r="H14">
-        <v>0.143</v>
+        <v>0.144</v>
       </c>
       <c r="I14">
-        <v>0.0678</v>
+        <v>0.0699</v>
       </c>
       <c r="J14">
-        <v>0.0279</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -956,31 +956,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.2309</v>
+        <v>0.2396</v>
       </c>
       <c r="C15">
-        <v>0.3357</v>
+        <v>0.2808</v>
       </c>
       <c r="D15">
-        <v>0.2849</v>
+        <v>0.2495</v>
       </c>
       <c r="E15">
-        <v>0.1485</v>
+        <v>0.2301</v>
       </c>
       <c r="F15">
-        <v>0.5666</v>
+        <v>0.5204</v>
       </c>
       <c r="G15">
-        <v>0.2629</v>
+        <v>0.2707</v>
       </c>
       <c r="H15">
-        <v>0.1257</v>
+        <v>0.1218</v>
       </c>
       <c r="I15">
-        <v>0.0542</v>
+        <v>0.0531</v>
       </c>
       <c r="J15">
-        <v>0.023</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -988,31 +988,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.2457</v>
+        <v>0.2312</v>
       </c>
       <c r="C16">
-        <v>0.2703</v>
+        <v>0.3294</v>
       </c>
       <c r="D16">
-        <v>0.2527</v>
+        <v>0.2796</v>
       </c>
       <c r="E16">
-        <v>0.2313</v>
+        <v>0.1598</v>
       </c>
       <c r="F16">
-        <v>0.516</v>
+        <v>0.5606</v>
       </c>
       <c r="G16">
-        <v>0.2569</v>
+        <v>0.2532</v>
       </c>
       <c r="H16">
-        <v>0.1141</v>
+        <v>0.1232</v>
       </c>
       <c r="I16">
-        <v>0.049</v>
+        <v>0.0509</v>
       </c>
       <c r="J16">
-        <v>0.0206</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1020,31 +1020,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.164</v>
+        <v>0.1703</v>
       </c>
       <c r="C17">
-        <v>0.2951</v>
+        <v>0.2896</v>
       </c>
       <c r="D17">
-        <v>0.353</v>
+        <v>0.3509</v>
       </c>
       <c r="E17">
-        <v>0.1879</v>
+        <v>0.1892</v>
       </c>
       <c r="F17">
-        <v>0.4591</v>
+        <v>0.4599</v>
       </c>
       <c r="G17">
-        <v>0.205</v>
+        <v>0.2065</v>
       </c>
       <c r="H17">
-        <v>0.0886</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="I17">
-        <v>0.0386</v>
+        <v>0.0405</v>
       </c>
       <c r="J17">
-        <v>0.0158</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1052,31 +1052,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.1796</v>
+        <v>0.1882</v>
       </c>
       <c r="C18">
-        <v>0.3007</v>
+        <v>0.2923</v>
       </c>
       <c r="D18">
-        <v>0.3263</v>
+        <v>0.3297</v>
       </c>
       <c r="E18">
-        <v>0.1934</v>
+        <v>0.1898</v>
       </c>
       <c r="F18">
-        <v>0.4803</v>
+        <v>0.4805</v>
       </c>
       <c r="G18">
-        <v>0.205</v>
+        <v>0.2117</v>
       </c>
       <c r="H18">
-        <v>0.0925</v>
+        <v>0.098</v>
       </c>
       <c r="I18">
-        <v>0.0357</v>
+        <v>0.0378</v>
       </c>
       <c r="J18">
-        <v>0.0143</v>
+        <v>0.0142</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1084,31 +1084,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.2094</v>
+        <v>0.1816</v>
       </c>
       <c r="C19">
-        <v>0.326</v>
+        <v>0.2259</v>
       </c>
       <c r="D19">
-        <v>0.3023</v>
+        <v>0.2879</v>
       </c>
       <c r="E19">
-        <v>0.1623</v>
+        <v>0.3046</v>
       </c>
       <c r="F19">
-        <v>0.5354</v>
+        <v>0.4075</v>
       </c>
       <c r="G19">
-        <v>0.2274</v>
+        <v>0.1965</v>
       </c>
       <c r="H19">
-        <v>0.08799999999999999</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="I19">
         <v>0.0343</v>
       </c>
       <c r="J19">
-        <v>0.0121</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1116,31 +1116,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.1753</v>
+        <v>0.2082</v>
       </c>
       <c r="C20">
-        <v>0.2353</v>
+        <v>0.3297</v>
       </c>
       <c r="D20">
-        <v>0.2849</v>
+        <v>0.2991</v>
       </c>
       <c r="E20">
-        <v>0.3045</v>
+        <v>0.163</v>
       </c>
       <c r="F20">
-        <v>0.4106</v>
+        <v>0.5379</v>
       </c>
       <c r="G20">
-        <v>0.1922</v>
+        <v>0.2233</v>
       </c>
       <c r="H20">
-        <v>0.0761</v>
+        <v>0.0877</v>
       </c>
       <c r="I20">
-        <v>0.0306</v>
+        <v>0.0336</v>
       </c>
       <c r="J20">
-        <v>0.0118</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1148,31 +1148,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.2067</v>
+        <v>0.2019</v>
       </c>
       <c r="C21">
-        <v>0.3119</v>
+        <v>0.3064</v>
       </c>
       <c r="D21">
-        <v>0.3278</v>
+        <v>0.3169</v>
       </c>
       <c r="E21">
-        <v>0.1536</v>
+        <v>0.1748</v>
       </c>
       <c r="F21">
-        <v>0.5185999999999999</v>
+        <v>0.5083</v>
       </c>
       <c r="G21">
-        <v>0.2205</v>
+        <v>0.2126</v>
       </c>
       <c r="H21">
-        <v>0.0824</v>
+        <v>0.0814</v>
       </c>
       <c r="I21">
-        <v>0.0314</v>
+        <v>0.0277</v>
       </c>
       <c r="J21">
-        <v>0.0108</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1180,31 +1180,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1461</v>
+        <v>0.16</v>
       </c>
       <c r="C22">
-        <v>0.2394</v>
+        <v>0.2211</v>
       </c>
       <c r="D22">
-        <v>0.3033</v>
+        <v>0.2787</v>
       </c>
       <c r="E22">
-        <v>0.3112</v>
+        <v>0.3402</v>
       </c>
       <c r="F22">
-        <v>0.3855</v>
+        <v>0.3811</v>
       </c>
       <c r="G22">
-        <v>0.154</v>
+        <v>0.1685</v>
       </c>
       <c r="H22">
-        <v>0.0575</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="I22">
-        <v>0.0222</v>
+        <v>0.0242</v>
       </c>
       <c r="J22">
-        <v>0.009599999999999999</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1212,31 +1212,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1756</v>
+        <v>0.1839</v>
       </c>
       <c r="C23">
-        <v>0.2886</v>
+        <v>0.2842</v>
       </c>
       <c r="D23">
-        <v>0.4148</v>
+        <v>0.4031</v>
       </c>
       <c r="E23">
-        <v>0.121</v>
+        <v>0.1288</v>
       </c>
       <c r="F23">
-        <v>0.4642</v>
+        <v>0.4681</v>
       </c>
       <c r="G23">
-        <v>0.1677</v>
+        <v>0.1773</v>
       </c>
       <c r="H23">
-        <v>0.0645</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="I23">
-        <v>0.0254</v>
+        <v>0.025</v>
       </c>
       <c r="J23">
-        <v>0.0081</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1244,31 +1244,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1459</v>
+        <v>0.1468</v>
       </c>
       <c r="C24">
-        <v>0.2181</v>
+        <v>0.2332</v>
       </c>
       <c r="D24">
-        <v>0.2837</v>
+        <v>0.3071</v>
       </c>
       <c r="E24">
-        <v>0.3523</v>
+        <v>0.3129</v>
       </c>
       <c r="F24">
-        <v>0.364</v>
+        <v>0.38</v>
       </c>
       <c r="G24">
-        <v>0.156</v>
+        <v>0.1543</v>
       </c>
       <c r="H24">
-        <v>0.059</v>
+        <v>0.061</v>
       </c>
       <c r="I24">
-        <v>0.0214</v>
+        <v>0.0254</v>
       </c>
       <c r="J24">
-        <v>0.0076</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1276,31 +1276,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.0922</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="C25">
-        <v>0.175</v>
+        <v>0.1829</v>
       </c>
       <c r="D25">
-        <v>0.2925</v>
+        <v>0.2927</v>
       </c>
       <c r="E25">
-        <v>0.4403</v>
+        <v>0.4302</v>
       </c>
       <c r="F25">
-        <v>0.2672</v>
+        <v>0.2771</v>
       </c>
       <c r="G25">
-        <v>0.0968</v>
+        <v>0.1003</v>
       </c>
       <c r="H25">
-        <v>0.0355</v>
+        <v>0.0367</v>
       </c>
       <c r="I25">
-        <v>0.0121</v>
+        <v>0.0133</v>
       </c>
       <c r="J25">
-        <v>0.0042</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1308,31 +1308,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.0951</v>
+        <v>0.1032</v>
       </c>
       <c r="C26">
-        <v>0.1988</v>
+        <v>0.2003</v>
       </c>
       <c r="D26">
-        <v>0.3416</v>
+        <v>0.3301</v>
       </c>
       <c r="E26">
-        <v>0.3645</v>
+        <v>0.3664</v>
       </c>
       <c r="F26">
-        <v>0.2939</v>
+        <v>0.3035</v>
       </c>
       <c r="G26">
-        <v>0.1015</v>
+        <v>0.1068</v>
       </c>
       <c r="H26">
-        <v>0.0338</v>
+        <v>0.0346</v>
       </c>
       <c r="I26">
-        <v>0.0111</v>
+        <v>0.0133</v>
       </c>
       <c r="J26">
-        <v>0.0035</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1340,31 +1340,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.0762</v>
+        <v>0.0867</v>
       </c>
       <c r="C27">
-        <v>0.1726</v>
+        <v>0.1805</v>
       </c>
       <c r="D27">
-        <v>0.3332</v>
+        <v>0.3249</v>
       </c>
       <c r="E27">
-        <v>0.418</v>
+        <v>0.4079</v>
       </c>
       <c r="F27">
-        <v>0.2488</v>
+        <v>0.2672</v>
       </c>
       <c r="G27">
-        <v>0.08019999999999999</v>
+        <v>0.0955</v>
       </c>
       <c r="H27">
-        <v>0.0312</v>
+        <v>0.0372</v>
       </c>
       <c r="I27">
-        <v>0.0104</v>
+        <v>0.0116</v>
       </c>
       <c r="J27">
-        <v>0.0034</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1372,31 +1372,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.08069999999999999</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="C28">
-        <v>0.1734</v>
+        <v>0.1687</v>
       </c>
       <c r="D28">
-        <v>0.3283</v>
+        <v>0.3132</v>
       </c>
       <c r="E28">
-        <v>0.4176</v>
+        <v>0.4398</v>
       </c>
       <c r="F28">
-        <v>0.2541</v>
+        <v>0.247</v>
       </c>
       <c r="G28">
-        <v>0.0824</v>
+        <v>0.0842</v>
       </c>
       <c r="H28">
-        <v>0.0283</v>
+        <v>0.0263</v>
       </c>
       <c r="I28">
-        <v>0.008</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="J28">
-        <v>0.0024</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1404,31 +1404,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.0772</v>
+        <v>0.0854</v>
       </c>
       <c r="C29">
-        <v>0.1674</v>
+        <v>0.1863</v>
       </c>
       <c r="D29">
-        <v>0.3136</v>
+        <v>0.3313</v>
       </c>
       <c r="E29">
-        <v>0.4418</v>
+        <v>0.397</v>
       </c>
       <c r="F29">
-        <v>0.2446</v>
+        <v>0.2717</v>
       </c>
       <c r="G29">
-        <v>0.07920000000000001</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="H29">
-        <v>0.0245</v>
+        <v>0.032</v>
       </c>
       <c r="I29">
-        <v>0.0071</v>
+        <v>0.01</v>
       </c>
       <c r="J29">
-        <v>0.002</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1436,31 +1436,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.0324</v>
+        <v>0.0416</v>
       </c>
       <c r="C30">
-        <v>0.1034</v>
+        <v>0.1115</v>
       </c>
       <c r="D30">
-        <v>0.2557</v>
+        <v>0.2491</v>
       </c>
       <c r="E30">
-        <v>0.6085</v>
+        <v>0.5978</v>
       </c>
       <c r="F30">
-        <v>0.1358</v>
+        <v>0.1531</v>
       </c>
       <c r="G30">
-        <v>0.0302</v>
+        <v>0.0422</v>
       </c>
       <c r="H30">
-        <v>0.0067</v>
+        <v>0.0111</v>
       </c>
       <c r="I30">
-        <v>0.0024</v>
+        <v>0.0028</v>
       </c>
       <c r="J30">
-        <v>0.0007</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1468,31 +1468,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.0284</v>
+        <v>0.0258</v>
       </c>
       <c r="C31">
-        <v>0.0887</v>
+        <v>0.09760000000000001</v>
       </c>
       <c r="D31">
-        <v>0.2456</v>
+        <v>0.2442</v>
       </c>
       <c r="E31">
-        <v>0.6373</v>
+        <v>0.6324</v>
       </c>
       <c r="F31">
-        <v>0.1171</v>
+        <v>0.1234</v>
       </c>
       <c r="G31">
-        <v>0.0278</v>
+        <v>0.0331</v>
       </c>
       <c r="H31">
-        <v>0.0072</v>
+        <v>0.0086</v>
       </c>
       <c r="I31">
-        <v>0.0022</v>
+        <v>0.004</v>
       </c>
       <c r="J31">
-        <v>0.0004</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1500,25 +1500,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.0309</v>
+        <v>0.0325</v>
       </c>
       <c r="C32">
-        <v>0.09810000000000001</v>
+        <v>0.1022</v>
       </c>
       <c r="D32">
-        <v>0.2326</v>
+        <v>0.2489</v>
       </c>
       <c r="E32">
-        <v>0.6384</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="F32">
-        <v>0.129</v>
+        <v>0.1347</v>
       </c>
       <c r="G32">
-        <v>0.0294</v>
+        <v>0.0322</v>
       </c>
       <c r="H32">
-        <v>0.0053</v>
+        <v>0.0067</v>
       </c>
       <c r="I32">
         <v>0.0011</v>
@@ -1532,31 +1532,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.0097</v>
+        <v>0.0115</v>
       </c>
       <c r="C33">
-        <v>0.0365</v>
+        <v>0.0465</v>
       </c>
       <c r="D33">
-        <v>0.1663</v>
+        <v>0.1716</v>
       </c>
       <c r="E33">
-        <v>0.7875</v>
+        <v>0.7704</v>
       </c>
       <c r="F33">
-        <v>0.0462</v>
+        <v>0.058</v>
       </c>
       <c r="G33">
-        <v>0.0067</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H33">
-        <v>0.0011</v>
+        <v>0.0007</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
